--- a/public/assets/templates/Boleta_Template.xlsx
+++ b/public/assets/templates/Boleta_Template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Proyectos\Probusiness\probusiness_intranetv2_back\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD2163A-B822-40C2-8101-CAD3FC9DB0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9173181A-B7D8-4FBF-BAEB-BFA102C7B0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="735" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1055,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1256,12 +1256,82 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,88 +1344,12 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1450,7 +1444,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1209675" cy="1190625"/>
@@ -1489,13 +1483,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>696686</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>107313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>500744</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>174173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1806,106 +1800,105 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="0.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="96"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.8">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="E3" s="107" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+    </row>
+    <row r="3" spans="1:12" ht="26.25">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="E3" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-    </row>
-    <row r="4" spans="1:12" ht="25.8">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="E4" s="108" t="s">
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+    </row>
+    <row r="4" spans="1:12" ht="26.25">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="E4" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="E7" s="93" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="E7" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="30" t="s">
@@ -1918,10 +1911,10 @@
       <c r="E8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="99"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="86"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
@@ -1944,21 +1937,21 @@
       <c r="E9" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="122">
         <f ca="1">+TODAY()</f>
-        <v>45521</v>
-      </c>
-      <c r="G9" s="95"/>
+        <v>45943</v>
+      </c>
+      <c r="G9" s="123"/>
       <c r="H9" s="86"/>
       <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="120">
         <f>+'2'!F8</f>
         <v>116</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30" t="s">
@@ -1971,10 +1964,10 @@
       <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="86"/>
       <c r="I10" s="1" t="s">
         <v>121</v>
@@ -1996,44 +1989,44 @@
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="120"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="86"/>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="130">
+      <c r="J11" s="100">
         <f>+'2'!F9</f>
         <v>1.1879999999999999</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
       <c r="K13" s="32" t="s">
         <v>34</v>
       </c>
@@ -2042,17 +2035,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="37">
         <f>'2'!F13</f>
         <v>944.03</v>
@@ -2062,17 +2055,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
       <c r="K15" s="38">
         <f>'2'!F16+'2'!F19</f>
         <v>299.47999999999996</v>
@@ -2082,17 +2075,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="37">
         <f>SUM(K14:K15)</f>
         <v>1243.51</v>
@@ -2128,13 +2121,13 @@
       <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
@@ -2149,16 +2142,16 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="47">
         <f>MAX('2'!C26:E26)</f>
         <v>0.04</v>
@@ -2172,16 +2165,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="47">
         <v>0.16</v>
       </c>
@@ -2194,16 +2187,16 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
       <c r="J22" s="47">
         <v>0.02</v>
       </c>
@@ -2216,16 +2209,16 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
       <c r="J23" s="75"/>
       <c r="K23" s="76">
         <f>SUM(K20:K22)</f>
@@ -2236,29 +2229,29 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="2"/>
       <c r="K24" s="33"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
       <c r="J25" s="48" t="s">
         <v>76</v>
       </c>
@@ -2271,16 +2264,16 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
       <c r="K26" s="37">
         <f>K23+K25</f>
         <v>316.1151070046609</v>
@@ -2290,27 +2283,27 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.6">
-      <c r="B28" s="105" t="s">
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75">
+      <c r="B28" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
       <c r="K28" s="60" t="s">
         <v>34</v>
       </c>
@@ -2319,17 +2312,17 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
       <c r="K29" s="37">
         <f>K14</f>
         <v>944.03</v>
@@ -2339,17 +2332,17 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="37">
         <f>+'2'!K22</f>
         <v>415.79999999999995</v>
@@ -2359,17 +2352,17 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
       <c r="K31" s="38">
         <f>K26</f>
         <v>316.1151070046609</v>
@@ -2379,17 +2372,17 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
       <c r="K32" s="37">
         <f>SUM(K29:K31)</f>
         <v>1675.9451070046607</v>
@@ -2398,20 +2391,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-    </row>
-    <row r="34" spans="2:12">
+    <row r="33" spans="2:13">
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="114" t="s">
         <v>102</v>
       </c>
@@ -2426,921 +2419,809 @@
       <c r="K34" s="115"/>
       <c r="L34" s="116"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:13">
       <c r="B35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="111"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="111"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="100" t="s">
+      <c r="K35" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="100"/>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="L35" s="104"/>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="109" t="str">
+      <c r="C36" s="95" t="str">
         <f>+'2'!$C$6</f>
         <v xml:space="preserve">Kids Car Seat Belt Pillow </v>
       </c>
-      <c r="D36" s="110"/>
-      <c r="E36" s="111"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
       <c r="F36" s="7">
         <f>+'2'!$C$45</f>
         <v>100</v>
       </c>
-      <c r="G36" s="112">
+      <c r="G36" s="98">
         <f>+'2'!$C$10</f>
         <v>6.36</v>
       </c>
-      <c r="H36" s="113"/>
+      <c r="H36" s="99"/>
       <c r="I36" s="55">
         <f>+'2'!$C$46</f>
         <v>11.424505892807643</v>
       </c>
       <c r="J36" s="55">
-        <f t="shared" ref="J36:J38" si="0">+F36*I36</f>
+        <f t="shared" ref="J36" si="0">+F36*I36</f>
         <v>1142.4505892807642</v>
       </c>
-      <c r="K36" s="100">
+      <c r="K36" s="104">
         <f t="shared" ref="K36" si="1">I36*3.7</f>
         <v>42.270671803388282</v>
       </c>
-      <c r="L36" s="100"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="46">
-        <v>2</v>
-      </c>
-      <c r="C37" s="109" t="str">
-        <f>+'2'!$D$6</f>
-        <v>Car Headrest</v>
-      </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="7">
-        <f>+'2'!$D$45</f>
-        <v>1</v>
-      </c>
-      <c r="G37" s="112">
-        <f>+'2'!$D$10</f>
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="H37" s="113"/>
-      <c r="I37" s="55">
-        <f>+'2'!$D$46</f>
-        <v>13.907609574791055</v>
-      </c>
-      <c r="J37" s="55">
-        <f t="shared" si="0"/>
-        <v>13.907609574791055</v>
-      </c>
-      <c r="K37" s="100">
-        <f t="shared" ref="K37:K38" si="2">I37*3.7</f>
-        <v>51.458155426726904</v>
-      </c>
-      <c r="L37" s="100"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="46">
-        <v>3</v>
-      </c>
-      <c r="C38" s="109" t="str">
-        <f>+'2'!$E$6</f>
-        <v>Bluetooth sleep mask</v>
-      </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="7">
-        <f>+'2'!$E$45</f>
+      <c r="L36" s="104"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.75">
+      <c r="B37" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="36">
+        <f>+SUM(F36:F36)</f>
+        <v>100</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="56">
+        <f>+SUM(J36:J36)</f>
+        <v>1142.4505892807642</v>
+      </c>
+      <c r="K37" s="77"/>
+      <c r="L37" s="78"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75">
+      <c r="B38" s="49"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="78"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="80"/>
+    </row>
+    <row r="40" spans="2:13" ht="18.75">
+      <c r="B40" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+    </row>
+    <row r="41" spans="2:13" ht="18.75">
+      <c r="B41" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+    </row>
+    <row r="42" spans="2:13" ht="18.75">
+      <c r="B42" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+    </row>
+    <row r="43" spans="2:13" ht="18.75">
+      <c r="B43" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+    </row>
+    <row r="44" spans="2:13" ht="18.75">
+      <c r="B44" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+    </row>
+    <row r="45" spans="2:13" ht="18.75">
+      <c r="B45" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+    </row>
+    <row r="47" spans="2:13" ht="9" customHeight="1">
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+    </row>
+    <row r="48" spans="2:13" ht="31.9" customHeight="1">
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+    </row>
+    <row r="49" spans="2:12" ht="21" customHeight="1">
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+    </row>
+    <row r="52" spans="2:12" ht="21">
+      <c r="B52" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="103"/>
+      <c r="L52" s="103"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="91"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="112">
-        <f>+'2'!$E$10</f>
-        <v>6</v>
-      </c>
-      <c r="H38" s="113"/>
-      <c r="I38" s="55">
-        <f>+'2'!$E$46</f>
-        <v>10.391738162982108</v>
-      </c>
-      <c r="J38" s="55">
-        <f t="shared" si="0"/>
-        <v>519.5869081491054</v>
-      </c>
-      <c r="K38" s="128">
-        <f t="shared" si="2"/>
-        <v>38.449431203033804</v>
-      </c>
-      <c r="L38" s="129"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.6">
-      <c r="B39" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="36">
-        <f>+SUM(F36:F38)</f>
-        <v>151</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="J39" s="56">
-        <f>+SUM(J36:J38)</f>
-        <v>1675.9451070046607</v>
-      </c>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
-    </row>
-    <row r="40" spans="2:12" ht="15.6">
-      <c r="B40" s="49"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="78"/>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="80"/>
-    </row>
-    <row r="42" spans="2:12" ht="18">
-      <c r="B42" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-    </row>
-    <row r="43" spans="2:12" ht="18">
-      <c r="B43" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-    </row>
-    <row r="44" spans="2:12" ht="18">
-      <c r="B44" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-    </row>
-    <row r="45" spans="2:12" ht="18">
-      <c r="B45" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
-    </row>
-    <row r="46" spans="2:12" ht="18">
-      <c r="B46" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-    </row>
-    <row r="47" spans="2:12" ht="18">
-      <c r="B47" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-    </row>
-    <row r="49" spans="2:13" ht="9" customHeight="1">
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-    </row>
-    <row r="50" spans="2:13" ht="31.8" customHeight="1">
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-    </row>
-    <row r="51" spans="2:13" ht="21" customHeight="1">
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-    </row>
-    <row r="54" spans="2:13" ht="21">
-      <c r="B54" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="B57" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="126"/>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="102"/>
-      <c r="I58" s="102"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="102"/>
-      <c r="L58" s="102"/>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="102"/>
-      <c r="K61" s="102"/>
-      <c r="L61" s="102"/>
-    </row>
-    <row r="62" spans="2:13">
-      <c r="B62" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63" s="126" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
-    </row>
-    <row r="64" spans="2:13">
-      <c r="B64" s="126" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="126"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="126"/>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="126" t="s">
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="126"/>
-    </row>
-    <row r="66" spans="2:12">
-      <c r="B66" s="126" t="s">
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="126"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="126"/>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="B67" s="126" t="s">
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="91"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="B65" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="126"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="126"/>
-    </row>
-    <row r="68" spans="2:12">
-      <c r="B68" s="126" t="s">
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="B66" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="126"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
-    </row>
-    <row r="69" spans="2:12">
-      <c r="B69" s="126" t="s">
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="B67" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
-    </row>
-    <row r="70" spans="2:12">
-      <c r="B70" s="126" t="s">
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="B68" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
-    </row>
-    <row r="71" spans="2:12">
-      <c r="B71" s="126" t="s">
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="B69" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="B72" s="126" t="s">
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="B70" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="126"/>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
-    </row>
-    <row r="73" spans="2:12">
-      <c r="B73" s="122" t="s">
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="B71" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="122"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="122"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="122"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="122"/>
-      <c r="L73" s="122"/>
-    </row>
-    <row r="74" spans="2:12">
-      <c r="B74" s="126" t="s">
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="B72" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="126"/>
-      <c r="D74" s="126"/>
-      <c r="E74" s="126"/>
-      <c r="F74" s="126"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="126"/>
-      <c r="K74" s="126"/>
-      <c r="L74" s="126"/>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="B75" s="122" t="s">
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="B73" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="122"/>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122"/>
-      <c r="L75" s="122"/>
-    </row>
-    <row r="76" spans="2:12">
-      <c r="B76" s="126" t="s">
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="B74" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="126"/>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="B77" s="126" t="s">
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="B75" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="126"/>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="126"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="126"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="126"/>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="B78" s="126" t="s">
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="91"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="91"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="B76" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="B79" s="126" t="s">
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="B77" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="126"/>
-      <c r="D79" s="126"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="126"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="126"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="126"/>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="B80" s="126" t="s">
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="B78" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="126"/>
-      <c r="D80" s="126"/>
-      <c r="E80" s="126"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="126"/>
-      <c r="J80" s="126"/>
-      <c r="K80" s="126"/>
-      <c r="L80" s="126"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="91"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="85"/>
+      <c r="B79" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="85"/>
+      <c r="B80" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="85"/>
-      <c r="B81" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="127"/>
-      <c r="J81" s="127"/>
-      <c r="K81" s="127"/>
-      <c r="L81" s="127"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="85"/>
-      <c r="B82" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="126"/>
-      <c r="D82" s="126"/>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
+      <c r="B81" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="101"/>
+      <c r="I81" s="101"/>
+      <c r="J81" s="101"/>
+      <c r="K81" s="101"/>
+      <c r="L81" s="101"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="85"/>
-      <c r="B83" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
-      <c r="K83" s="127"/>
-      <c r="L83" s="127"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="92"/>
+      <c r="I83" s="92"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="92"/>
+      <c r="I84" s="92"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="92"/>
+      <c r="I85" s="92"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="C87" s="91"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="92"/>
+      <c r="I87" s="92"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="C88" s="91"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="92"/>
+      <c r="G88" s="92"/>
+      <c r="H88" s="92"/>
+      <c r="I88" s="92"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="C90" s="91"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="91"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="91"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-    </row>
-    <row r="92" spans="1:12" ht="15.6" customHeight="1">
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="91"/>
-      <c r="G92" s="91"/>
-      <c r="H92" s="91"/>
-      <c r="I92" s="91"/>
-    </row>
-    <row r="93" spans="1:12" ht="15.6" customHeight="1">
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="91"/>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="91"/>
-      <c r="I93" s="91"/>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="C94" s="91"/>
-      <c r="D94" s="91"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="91"/>
-      <c r="G94" s="91"/>
-      <c r="H94" s="91"/>
-      <c r="I94" s="91"/>
-    </row>
-    <row r="100" ht="15.6" customHeight="1"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+    </row>
+    <row r="90" spans="1:12" ht="15.6" customHeight="1">
+      <c r="C90" s="92"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="92"/>
+      <c r="H90" s="92"/>
+      <c r="I90" s="92"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.6" customHeight="1">
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="92"/>
+      <c r="I91" s="92"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+    </row>
+    <row r="98" ht="15.6" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="89">
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B69:L69"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B83:L83"/>
-    <mergeCell ref="B66:L66"/>
-    <mergeCell ref="B67:L67"/>
-    <mergeCell ref="B68:L68"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B62:L62"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="B64:L64"/>
-    <mergeCell ref="B65:L65"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="B81:L81"/>
-    <mergeCell ref="B80:L80"/>
-    <mergeCell ref="B75:L75"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B79:L79"/>
-    <mergeCell ref="B49:C53"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B54:L54"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="C85:I94"/>
+  <mergeCells count="83">
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C83:I92"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="E2:L2"/>
-    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="D49:I49"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="K36:L36"/>
@@ -3350,25 +3231,65 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B46:L46"/>
     <mergeCell ref="B44:L44"/>
+    <mergeCell ref="B42:L42"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="E49:M49"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B15:J15"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="E47:M47"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="B75:L75"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B81:L81"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="B80:L80"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="B41:L41"/>
+    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B47:C51"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="VERIFICAR NÚMERO DE TELEFONO" error="Verifica que tenga 9 digitos sin espacio" sqref="J8:L8" xr:uid="{CC0405B2-A74A-4E8F-BF03-C34BEE695B67}">
@@ -3385,7 +3306,7 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" fitToWidth="2" fitToHeight="2" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="48" max="12" man="1"/>
+    <brk id="46" max="12" man="1"/>
   </rowBreaks>
   <cellWatches>
     <cellWatch r="K16"/>
@@ -3406,28 +3327,28 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="2"/>
-    <col min="8" max="9" width="11.44140625" style="1"/>
-    <col min="10" max="10" width="13.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12" max="32" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
+    <col min="12" max="32" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:32">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="6" spans="2:32" ht="15" customHeight="1">
       <c r="B6" s="70" t="s">
@@ -3477,14 +3398,14 @@
         <f>SUM(C8:E8)</f>
         <v>116</v>
       </c>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="131"/>
-      <c r="M8" s="131" t="s">
+      <c r="K8" s="129"/>
+      <c r="M8" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="131"/>
+      <c r="N8" s="129"/>
     </row>
     <row r="9" spans="2:32" ht="15" customHeight="1">
       <c r="B9" s="5" t="s">
@@ -3957,14 +3878,14 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="1:33">
       <c r="J24" s="9" t="s">
@@ -4213,14 +4134,14 @@
       <c r="AF34"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="21">
